--- a/Income_Andre.xlsx
+++ b/Income_Andre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D65363-7084-4D76-81F4-7E183AF504FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8E0907-252C-4C96-8862-353B958C82BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="43">
   <si>
     <t>GEO/TIME</t>
   </si>
@@ -146,12 +146,18 @@
   <si>
     <t>Female</t>
   </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -160,6 +166,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,6 +239,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -628,7 +642,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5">
         <v>7838</v>
@@ -674,7 +688,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5">
         <v>21275</v>
@@ -1441,8 +1455,8 @@
       <c r="A40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
+      <c r="B40" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C40" s="3">
         <v>8110</v>
@@ -1488,7 +1502,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C42" s="3">
         <v>21750</v>
@@ -2256,7 +2270,7 @@
         <v>40</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C76" s="3">
         <v>7624</v>
@@ -2302,7 +2316,7 @@
         <v>40</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C78" s="3">
         <v>20744</v>
@@ -3021,7 +3035,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/Income_Andre.xlsx
+++ b/Income_Andre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8E0907-252C-4C96-8862-353B958C82BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9299A9F2-2E23-4312-95B3-3266C4BBA232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="44">
   <si>
     <t>GEO/TIME</t>
   </si>
@@ -135,9 +135,6 @@
     <t xml:space="preserve">Germany </t>
   </si>
   <si>
-    <t xml:space="preserve">Group </t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -151,6 +148,12 @@
   </si>
   <si>
     <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
@@ -559,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -570,10 +573,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1">
         <v>2016</v>
@@ -593,7 +596,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -616,7 +619,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -639,10 +642,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="5">
         <v>7838</v>
@@ -662,7 +665,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -685,10 +688,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5">
         <v>21275</v>
@@ -708,7 +711,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -731,7 +734,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -754,7 +757,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -777,7 +780,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -800,7 +803,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -823,7 +826,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -846,7 +849,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -867,7 +870,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -890,7 +893,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -913,7 +916,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -936,7 +939,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -959,7 +962,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -982,7 +985,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
@@ -1005,7 +1008,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
@@ -1051,7 +1054,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
@@ -1074,7 +1077,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
@@ -1097,7 +1100,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
@@ -1120,7 +1123,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
@@ -1143,7 +1146,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -1166,7 +1169,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -1189,7 +1192,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
@@ -1231,7 +1234,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
@@ -1254,7 +1257,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
@@ -1277,7 +1280,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
@@ -1296,7 +1299,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
@@ -1319,7 +1322,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
@@ -1340,7 +1343,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
@@ -1361,7 +1364,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
@@ -1384,7 +1387,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
@@ -1407,7 +1410,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1</v>
@@ -1430,7 +1433,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2</v>
@@ -1453,10 +1456,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="3">
         <v>8110</v>
@@ -1476,7 +1479,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
@@ -1499,10 +1502,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="3">
         <v>21750</v>
@@ -1522,7 +1525,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
@@ -1545,7 +1548,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>6</v>
@@ -1568,7 +1571,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
@@ -1591,7 +1594,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>8</v>
@@ -1614,7 +1617,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>9</v>
@@ -1637,7 +1640,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>10</v>
@@ -1660,7 +1663,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>11</v>
@@ -1681,7 +1684,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>12</v>
@@ -1704,7 +1707,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>13</v>
@@ -1727,7 +1730,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>14</v>
@@ -1750,7 +1753,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>15</v>
@@ -1773,7 +1776,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>16</v>
@@ -1796,7 +1799,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>17</v>
@@ -1819,7 +1822,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>18</v>
@@ -1842,7 +1845,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>19</v>
@@ -1865,7 +1868,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>20</v>
@@ -1888,7 +1891,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>21</v>
@@ -1911,7 +1914,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>22</v>
@@ -1934,7 +1937,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>23</v>
@@ -1957,7 +1960,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>24</v>
@@ -1980,7 +1983,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>25</v>
@@ -2003,7 +2006,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>26</v>
@@ -2026,7 +2029,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>27</v>
@@ -2045,7 +2048,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>28</v>
@@ -2068,7 +2071,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>29</v>
@@ -2091,7 +2094,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>30</v>
@@ -2110,7 +2113,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>31</v>
@@ -2133,7 +2136,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>32</v>
@@ -2154,7 +2157,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>33</v>
@@ -2175,7 +2178,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>34</v>
@@ -2198,7 +2201,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>35</v>
@@ -2221,7 +2224,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>1</v>
@@ -2244,7 +2247,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>2</v>
@@ -2267,10 +2270,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C76" s="3">
         <v>7624</v>
@@ -2290,7 +2293,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>4</v>
@@ -2313,10 +2316,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C78" s="3">
         <v>20744</v>
@@ -2336,7 +2339,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>5</v>
@@ -2359,7 +2362,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>6</v>
@@ -2382,7 +2385,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>7</v>
@@ -2405,7 +2408,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>8</v>
@@ -2428,7 +2431,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>9</v>
@@ -2451,7 +2454,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>10</v>
@@ -2474,7 +2477,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>11</v>
@@ -2495,7 +2498,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>12</v>
@@ -2518,7 +2521,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>13</v>
@@ -2541,7 +2544,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>14</v>
@@ -2564,7 +2567,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>15</v>
@@ -2587,7 +2590,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>16</v>
@@ -2610,7 +2613,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>17</v>
@@ -2633,7 +2636,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>18</v>
@@ -2656,7 +2659,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>19</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>20</v>
@@ -2702,7 +2705,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>21</v>
@@ -2725,7 +2728,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>22</v>
@@ -2748,7 +2751,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>23</v>
@@ -2771,7 +2774,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>24</v>
@@ -2794,7 +2797,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>25</v>
@@ -2817,7 +2820,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>26</v>
@@ -2840,7 +2843,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>27</v>
@@ -2859,7 +2862,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>28</v>
@@ -2882,7 +2885,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>29</v>
@@ -2905,7 +2908,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>30</v>
@@ -2924,7 +2927,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>31</v>
@@ -2947,7 +2950,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>32</v>
@@ -2968,7 +2971,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>33</v>
@@ -2989,7 +2992,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>34</v>
@@ -3012,7 +3015,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>35</v>

--- a/Income_Andre.xlsx
+++ b/Income_Andre.xlsx
@@ -8,24 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9299A9F2-2E23-4312-95B3-3266C4BBA232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122ED0ED-DED9-44A5-8C8C-97E707803395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Income by age and sex- Total " sheetId="1" r:id="rId1"/>
-    <sheet name="Income by age and sex- Males" sheetId="2" r:id="rId2"/>
-    <sheet name="Income by age and sex- Females" sheetId="3" r:id="rId3"/>
+    <sheet name="Income_pergroup" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="44">
-  <si>
-    <t>GEO/TIME</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="41">
   <si>
     <t>Belgium</t>
   </si>
@@ -33,9 +28,6 @@
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -130,9 +122,6 @@
   </si>
   <si>
     <t>Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany </t>
   </si>
   <si>
     <t>Total</t>
@@ -562,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
@@ -573,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1">
         <v>2016</v>
@@ -596,10 +585,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
         <v>22295</v>
@@ -619,10 +608,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>3151</v>
@@ -642,10 +631,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5">
         <v>7838</v>
@@ -665,10 +654,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5">
         <v>28665</v>
@@ -688,10 +677,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C6" s="5">
         <v>21275</v>
@@ -711,10 +700,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5">
         <v>8645</v>
@@ -734,10 +723,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5">
         <v>22544</v>
@@ -757,10 +746,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
         <v>7500</v>
@@ -780,10 +769,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5">
         <v>13681</v>
@@ -803,10 +792,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
         <v>21713</v>
@@ -826,10 +815,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5">
         <v>5726</v>
@@ -849,10 +838,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5">
         <v>16247</v>
@@ -870,10 +859,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5">
         <v>14020</v>
@@ -893,10 +882,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5">
         <v>6365</v>
@@ -916,10 +905,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5">
         <v>5645</v>
@@ -939,10 +928,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5">
         <v>32841</v>
@@ -962,10 +951,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5">
         <v>4768</v>
@@ -985,10 +974,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="5">
         <v>13617</v>
@@ -1008,10 +997,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5">
         <v>22733</v>
@@ -1031,10 +1020,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="5">
         <v>23694</v>
@@ -1054,10 +1043,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5">
         <v>5884</v>
@@ -1077,10 +1066,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="5">
         <v>8782</v>
@@ -1100,10 +1089,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="5">
         <v>2448</v>
@@ -1123,10 +1112,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="5">
         <v>12327</v>
@@ -1146,10 +1135,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="5">
         <v>6951</v>
@@ -1169,10 +1158,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" s="5">
         <v>23650</v>
@@ -1192,10 +1181,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="5">
         <v>25164</v>
@@ -1215,10 +1204,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="5">
         <v>28393</v>
@@ -1234,10 +1223,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="5">
         <v>39573</v>
@@ -1257,10 +1246,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="5">
         <v>44253</v>
@@ -1280,10 +1269,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" s="5">
         <v>21136</v>
@@ -1299,10 +1288,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="5">
         <v>3200</v>
@@ -1322,10 +1311,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="5">
         <v>2233</v>
@@ -1343,10 +1332,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="5">
@@ -1364,10 +1353,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="5">
         <v>2432</v>
@@ -1387,10 +1376,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="5">
         <v>3752</v>
@@ -1410,10 +1399,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="3">
         <v>23129</v>
@@ -1433,10 +1422,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="3">
         <v>3249</v>
@@ -1456,10 +1445,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="C40" s="3">
         <v>8110</v>
@@ -1479,10 +1468,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="3">
         <v>29555</v>
@@ -1502,10 +1491,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="3">
         <v>21750</v>
@@ -1525,10 +1514,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43" s="3">
         <v>9056</v>
@@ -1548,10 +1537,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44" s="3">
         <v>22957</v>
@@ -1571,10 +1560,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" s="3">
         <v>7564</v>
@@ -1594,10 +1583,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" s="3">
         <v>13873</v>
@@ -1617,10 +1606,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C47" s="3">
         <v>21964</v>
@@ -1640,10 +1629,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
         <v>5860</v>
@@ -1663,10 +1652,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49" s="3">
         <v>16739</v>
@@ -1684,10 +1673,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50" s="3">
         <v>14340</v>
@@ -1707,10 +1696,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C51" s="3">
         <v>6578</v>
@@ -1730,10 +1719,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C52" s="3">
         <v>5886</v>
@@ -1753,10 +1742,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C53" s="3">
         <v>33353</v>
@@ -1776,10 +1765,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C54" s="3">
         <v>4868</v>
@@ -1799,10 +1788,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C55" s="3">
         <v>13748</v>
@@ -1822,10 +1811,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C56" s="3">
         <v>23128</v>
@@ -1845,10 +1834,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C57" s="3">
         <v>24111</v>
@@ -1868,10 +1857,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58" s="3">
         <v>5986</v>
@@ -1891,10 +1880,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C59" s="3">
         <v>8914</v>
@@ -1914,10 +1903,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C60" s="3">
         <v>2482</v>
@@ -1937,10 +1926,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C61" s="3">
         <v>12546</v>
@@ -1960,10 +1949,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C62" s="3">
         <v>7080</v>
@@ -1983,10 +1972,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C63" s="3">
         <v>24221</v>
@@ -2006,10 +1995,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C64" s="3">
         <v>25690</v>
@@ -2029,10 +2018,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C65" s="3">
         <v>28532</v>
@@ -2048,10 +2037,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C66" s="3">
         <v>40490</v>
@@ -2071,10 +2060,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C67" s="3">
         <v>45521</v>
@@ -2094,10 +2083,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C68" s="3">
         <v>21549</v>
@@ -2113,10 +2102,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C69" s="3">
         <v>3217</v>
@@ -2136,10 +2125,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C70" s="3">
         <v>2255</v>
@@ -2157,10 +2146,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="3">
@@ -2178,10 +2167,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C72" s="3">
         <v>2447</v>
@@ -2201,10 +2190,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C73" s="3">
         <v>3798</v>
@@ -2224,10 +2213,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="3">
         <v>21550</v>
@@ -2247,10 +2236,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" s="3">
         <v>3043</v>
@@ -2270,10 +2259,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C76" s="3">
         <v>7624</v>
@@ -2293,10 +2282,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77" s="3">
         <v>27941</v>
@@ -2316,10 +2305,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C78" s="3">
         <v>20744</v>
@@ -2339,10 +2328,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C79" s="3">
         <v>8321</v>
@@ -2362,10 +2351,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C80" s="3">
         <v>21990</v>
@@ -2385,10 +2374,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" s="3">
         <v>7422</v>
@@ -2408,10 +2397,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" s="3">
         <v>13490</v>
@@ -2431,10 +2420,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C83" s="3">
         <v>21416</v>
@@ -2454,10 +2443,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C84" s="3">
         <v>5569</v>
@@ -2477,10 +2466,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C85" s="3">
         <v>15885</v>
@@ -2498,10 +2487,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C86" s="3">
         <v>13854</v>
@@ -2521,10 +2510,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C87" s="3">
         <v>6159</v>
@@ -2544,10 +2533,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C88" s="3">
         <v>5497</v>
@@ -2567,10 +2556,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C89" s="3">
         <v>32588</v>
@@ -2590,10 +2579,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C90" s="3">
         <v>4722</v>
@@ -2613,10 +2602,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C91" s="3">
         <v>13543</v>
@@ -2636,10 +2625,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C92" s="3">
         <v>22271</v>
@@ -2659,10 +2648,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C93" s="3">
         <v>23202</v>
@@ -2682,10 +2671,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C94" s="3">
         <v>5807</v>
@@ -2705,10 +2694,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C95" s="3">
         <v>8643</v>
@@ -2728,10 +2717,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C96" s="3">
         <v>2407</v>
@@ -2751,10 +2740,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C97" s="3">
         <v>12128</v>
@@ -2774,10 +2763,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C98" s="3">
         <v>6901</v>
@@ -2797,10 +2786,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C99" s="3">
         <v>23225</v>
@@ -2820,10 +2809,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C100" s="3">
         <v>24471</v>
@@ -2843,10 +2832,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C101" s="3">
         <v>28271</v>
@@ -2862,10 +2851,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C102" s="3">
         <v>38627</v>
@@ -2885,10 +2874,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C103" s="3">
         <v>43091</v>
@@ -2908,10 +2897,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C104" s="3">
         <v>20706</v>
@@ -2927,10 +2916,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C105" s="3">
         <v>3199</v>
@@ -2950,10 +2939,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C106" s="3">
         <v>2226</v>
@@ -2971,10 +2960,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="3">
@@ -2992,10 +2981,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C108" s="3">
         <v>2416</v>
@@ -3015,10 +3004,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C109" s="3">
         <v>3703</v>
@@ -3041,1492 +3030,4 @@
   <pageSetup paperSize="9" firstPageNumber="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>2016</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2018</v>
-      </c>
-      <c r="E1" s="2">
-        <v>2019</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>23129</v>
-      </c>
-      <c r="C2" s="3">
-        <v>23367</v>
-      </c>
-      <c r="D2" s="3">
-        <v>24220</v>
-      </c>
-      <c r="E2" s="3">
-        <v>25019</v>
-      </c>
-      <c r="F2" s="3">
-        <v>26143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3249</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3704</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3709</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4362</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4792</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>8110</v>
-      </c>
-      <c r="C4" s="3">
-        <v>8524</v>
-      </c>
-      <c r="D4" s="3">
-        <v>9392</v>
-      </c>
-      <c r="E4" s="3">
-        <v>10313</v>
-      </c>
-      <c r="F4" s="3">
-        <v>11025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>29555</v>
-      </c>
-      <c r="C5" s="3">
-        <v>29554</v>
-      </c>
-      <c r="D5" s="3">
-        <v>30593</v>
-      </c>
-      <c r="E5" s="3">
-        <v>31150</v>
-      </c>
-      <c r="F5" s="3">
-        <v>31267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="3">
-        <v>21750</v>
-      </c>
-      <c r="C6" s="3">
-        <v>22472</v>
-      </c>
-      <c r="D6" s="3">
-        <v>23231</v>
-      </c>
-      <c r="E6" s="3">
-        <v>24039</v>
-      </c>
-      <c r="F6" s="3">
-        <v>23989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>9056</v>
-      </c>
-      <c r="C7" s="3">
-        <v>9858</v>
-      </c>
-      <c r="D7" s="3">
-        <v>10889</v>
-      </c>
-      <c r="E7" s="3">
-        <v>11806</v>
-      </c>
-      <c r="F7" s="3">
-        <v>12519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>22957</v>
-      </c>
-      <c r="C8" s="3">
-        <v>23242</v>
-      </c>
-      <c r="D8" s="3">
-        <v>25254</v>
-      </c>
-      <c r="E8" s="3">
-        <v>25662</v>
-      </c>
-      <c r="F8" s="3">
-        <v>26331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>7564</v>
-      </c>
-      <c r="C9" s="3">
-        <v>7689</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7954</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>13873</v>
-      </c>
-      <c r="C10" s="3">
-        <v>14513</v>
-      </c>
-      <c r="D10" s="3">
-        <v>15086</v>
-      </c>
-      <c r="E10" s="3">
-        <v>15294</v>
-      </c>
-      <c r="F10" s="3">
-        <v>16339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>21964</v>
-      </c>
-      <c r="C11" s="3">
-        <v>22235</v>
-      </c>
-      <c r="D11" s="3">
-        <v>22563</v>
-      </c>
-      <c r="E11" s="3">
-        <v>22815</v>
-      </c>
-      <c r="F11" s="3">
-        <v>22125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5860</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6372</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6823</v>
-      </c>
-      <c r="E12" s="3">
-        <v>7394</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8061</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>16739</v>
-      </c>
-      <c r="C13" s="3">
-        <v>16914</v>
-      </c>
-      <c r="D13" s="3">
-        <v>17228</v>
-      </c>
-      <c r="E13" s="3">
-        <v>17551</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>14340</v>
-      </c>
-      <c r="C14" s="3">
-        <v>14820</v>
-      </c>
-      <c r="D14" s="3">
-        <v>15474</v>
-      </c>
-      <c r="E14" s="3">
-        <v>16352</v>
-      </c>
-      <c r="F14" s="3">
-        <v>17044</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>6578</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6866</v>
-      </c>
-      <c r="D15" s="3">
-        <v>7710</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8610</v>
-      </c>
-      <c r="F15" s="3">
-        <v>9233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5886</v>
-      </c>
-      <c r="C16" s="3">
-        <v>6282</v>
-      </c>
-      <c r="D16" s="3">
-        <v>7208</v>
-      </c>
-      <c r="E16" s="3">
-        <v>7961</v>
-      </c>
-      <c r="F16" s="3">
-        <v>8969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>33353</v>
-      </c>
-      <c r="C17" s="3">
-        <v>36779</v>
-      </c>
-      <c r="D17" s="3">
-        <v>34914</v>
-      </c>
-      <c r="E17" s="3">
-        <v>36697</v>
-      </c>
-      <c r="F17" s="3">
-        <v>37679</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>4868</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5106</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5505</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5984</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6660</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>13748</v>
-      </c>
-      <c r="C19" s="3">
-        <v>14788</v>
-      </c>
-      <c r="D19" s="3">
-        <v>14980</v>
-      </c>
-      <c r="E19" s="3">
-        <v>15716</v>
-      </c>
-      <c r="F19" s="3">
-        <v>16387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>23128</v>
-      </c>
-      <c r="C20" s="3">
-        <v>24110</v>
-      </c>
-      <c r="D20" s="3">
-        <v>24637</v>
-      </c>
-      <c r="E20" s="3">
-        <v>25151</v>
-      </c>
-      <c r="F20" s="3">
-        <v>26384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>24111</v>
-      </c>
-      <c r="C21" s="3">
-        <v>25225</v>
-      </c>
-      <c r="D21" s="3">
-        <v>25922</v>
-      </c>
-      <c r="E21" s="3">
-        <v>26155</v>
-      </c>
-      <c r="F21" s="3">
-        <v>26958</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5986</v>
-      </c>
-      <c r="C22" s="3">
-        <v>6041</v>
-      </c>
-      <c r="D22" s="3">
-        <v>6690</v>
-      </c>
-      <c r="E22" s="3">
-        <v>7240</v>
-      </c>
-      <c r="F22" s="3">
-        <v>8204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>8914</v>
-      </c>
-      <c r="C23" s="3">
-        <v>9231</v>
-      </c>
-      <c r="D23" s="3">
-        <v>9505</v>
-      </c>
-      <c r="E23" s="3">
-        <v>10167</v>
-      </c>
-      <c r="F23" s="3">
-        <v>10906</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2482</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2829</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3385</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3979</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4408</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3">
-        <v>12546</v>
-      </c>
-      <c r="C25" s="3">
-        <v>12954</v>
-      </c>
-      <c r="D25" s="3">
-        <v>13413</v>
-      </c>
-      <c r="E25" s="3">
-        <v>14335</v>
-      </c>
-      <c r="F25" s="3">
-        <v>15089</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <v>7080</v>
-      </c>
-      <c r="C26" s="3">
-        <v>7293</v>
-      </c>
-      <c r="D26" s="3">
-        <v>7743</v>
-      </c>
-      <c r="E26" s="3">
-        <v>8309</v>
-      </c>
-      <c r="F26" s="3">
-        <v>8833</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3">
-        <v>24221</v>
-      </c>
-      <c r="C27" s="3">
-        <v>24338</v>
-      </c>
-      <c r="D27" s="3">
-        <v>25069</v>
-      </c>
-      <c r="E27" s="3">
-        <v>25453</v>
-      </c>
-      <c r="F27" s="3">
-        <v>26069</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3">
-        <v>25690</v>
-      </c>
-      <c r="C28" s="3">
-        <v>25909</v>
-      </c>
-      <c r="D28" s="3">
-        <v>26084</v>
-      </c>
-      <c r="E28" s="3">
-        <v>25021</v>
-      </c>
-      <c r="F28" s="3">
-        <v>25346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3">
-        <v>28532</v>
-      </c>
-      <c r="C29" s="3">
-        <v>34207</v>
-      </c>
-      <c r="D29" s="3">
-        <v>40246</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3">
-        <v>40490</v>
-      </c>
-      <c r="C30" s="3">
-        <v>39322</v>
-      </c>
-      <c r="D30" s="3">
-        <v>40040</v>
-      </c>
-      <c r="E30" s="3">
-        <v>39868</v>
-      </c>
-      <c r="F30" s="3">
-        <v>40950</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3">
-        <v>45521</v>
-      </c>
-      <c r="C31" s="3">
-        <v>44770</v>
-      </c>
-      <c r="D31" s="3">
-        <v>43666</v>
-      </c>
-      <c r="E31" s="3">
-        <v>42715</v>
-      </c>
-      <c r="F31" s="3">
-        <v>44143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3">
-        <v>21549</v>
-      </c>
-      <c r="C32" s="3">
-        <v>21420</v>
-      </c>
-      <c r="D32" s="3">
-        <v>22070</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3">
-        <v>3217</v>
-      </c>
-      <c r="C33" s="3">
-        <v>3556</v>
-      </c>
-      <c r="D33" s="3">
-        <v>3797</v>
-      </c>
-      <c r="E33" s="3">
-        <v>3785</v>
-      </c>
-      <c r="F33" s="3">
-        <v>3922</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3">
-        <v>2255</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2448</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2627</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2743</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="3">
-        <v>1771</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2258</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2551</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3">
-        <v>2447</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2557</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2769</v>
-      </c>
-      <c r="E36" s="3">
-        <v>3331</v>
-      </c>
-      <c r="F36" s="3">
-        <v>3799</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3">
-        <v>3798</v>
-      </c>
-      <c r="C37" s="3">
-        <v>3928</v>
-      </c>
-      <c r="D37" s="3">
-        <v>3559</v>
-      </c>
-      <c r="E37" s="3">
-        <v>3055</v>
-      </c>
-      <c r="F37" s="3">
-        <v>3161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>2016</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2018</v>
-      </c>
-      <c r="E1" s="2">
-        <v>2019</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>21550</v>
-      </c>
-      <c r="C2" s="3">
-        <v>21976</v>
-      </c>
-      <c r="D2" s="3">
-        <v>23135</v>
-      </c>
-      <c r="E2" s="3">
-        <v>24013</v>
-      </c>
-      <c r="F2" s="3">
-        <v>25135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3043</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3480</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3474</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4059</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>7624</v>
-      </c>
-      <c r="C4" s="3">
-        <v>8106</v>
-      </c>
-      <c r="D4" s="3">
-        <v>8802</v>
-      </c>
-      <c r="E4" s="3">
-        <v>9668</v>
-      </c>
-      <c r="F4" s="3">
-        <v>10299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>27941</v>
-      </c>
-      <c r="C5" s="3">
-        <v>29250</v>
-      </c>
-      <c r="D5" s="3">
-        <v>29611</v>
-      </c>
-      <c r="E5" s="3">
-        <v>30366</v>
-      </c>
-      <c r="F5" s="3">
-        <v>30182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="3">
-        <v>20744</v>
-      </c>
-      <c r="C6" s="3">
-        <v>21316</v>
-      </c>
-      <c r="D6" s="3">
-        <v>22081</v>
-      </c>
-      <c r="E6" s="3">
-        <v>22979</v>
-      </c>
-      <c r="F6" s="3">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>8321</v>
-      </c>
-      <c r="C7" s="3">
-        <v>9089</v>
-      </c>
-      <c r="D7" s="3">
-        <v>10171</v>
-      </c>
-      <c r="E7" s="3">
-        <v>11042</v>
-      </c>
-      <c r="F7" s="3">
-        <v>11948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>21990</v>
-      </c>
-      <c r="C8" s="3">
-        <v>22475</v>
-      </c>
-      <c r="D8" s="3">
-        <v>24336</v>
-      </c>
-      <c r="E8" s="3">
-        <v>25401</v>
-      </c>
-      <c r="F8" s="3">
-        <v>26183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>7422</v>
-      </c>
-      <c r="C9" s="3">
-        <v>7543</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7781</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8096</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8635</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>13490</v>
-      </c>
-      <c r="C10" s="3">
-        <v>13948</v>
-      </c>
-      <c r="D10" s="3">
-        <v>14492</v>
-      </c>
-      <c r="E10" s="3">
-        <v>14783</v>
-      </c>
-      <c r="F10" s="3">
-        <v>15804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>21416</v>
-      </c>
-      <c r="C11" s="3">
-        <v>21757</v>
-      </c>
-      <c r="D11" s="3">
-        <v>21975</v>
-      </c>
-      <c r="E11" s="3">
-        <v>22286</v>
-      </c>
-      <c r="F11" s="3">
-        <v>21407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5569</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6068</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6545</v>
-      </c>
-      <c r="E12" s="3">
-        <v>7203</v>
-      </c>
-      <c r="F12" s="3">
-        <v>7765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>15885</v>
-      </c>
-      <c r="C13" s="3">
-        <v>16242</v>
-      </c>
-      <c r="D13" s="3">
-        <v>16511</v>
-      </c>
-      <c r="E13" s="3">
-        <v>16829</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>13854</v>
-      </c>
-      <c r="C14" s="3">
-        <v>14180</v>
-      </c>
-      <c r="D14" s="3">
-        <v>15199</v>
-      </c>
-      <c r="E14" s="3">
-        <v>16144</v>
-      </c>
-      <c r="F14" s="3">
-        <v>16403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>6159</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6455</v>
-      </c>
-      <c r="D15" s="3">
-        <v>6989</v>
-      </c>
-      <c r="E15" s="3">
-        <v>7890</v>
-      </c>
-      <c r="F15" s="3">
-        <v>8551</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5497</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5951</v>
-      </c>
-      <c r="D16" s="3">
-        <v>6652</v>
-      </c>
-      <c r="E16" s="3">
-        <v>7258</v>
-      </c>
-      <c r="F16" s="3">
-        <v>8333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>32588</v>
-      </c>
-      <c r="C17" s="3">
-        <v>35931</v>
-      </c>
-      <c r="D17" s="3">
-        <v>33716</v>
-      </c>
-      <c r="E17" s="3">
-        <v>35995</v>
-      </c>
-      <c r="F17" s="3">
-        <v>37962</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>4722</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4881</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5323</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5737</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6353</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>13543</v>
-      </c>
-      <c r="C19" s="3">
-        <v>14249</v>
-      </c>
-      <c r="D19" s="3">
-        <v>14581</v>
-      </c>
-      <c r="E19" s="3">
-        <v>15061</v>
-      </c>
-      <c r="F19" s="3">
-        <v>16116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>22271</v>
-      </c>
-      <c r="C20" s="3">
-        <v>23092</v>
-      </c>
-      <c r="D20" s="3">
-        <v>23441</v>
-      </c>
-      <c r="E20" s="3">
-        <v>24033</v>
-      </c>
-      <c r="F20" s="3">
-        <v>25257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>23202</v>
-      </c>
-      <c r="C21" s="3">
-        <v>24433</v>
-      </c>
-      <c r="D21" s="3">
-        <v>24675</v>
-      </c>
-      <c r="E21" s="3">
-        <v>25241</v>
-      </c>
-      <c r="F21" s="3">
-        <v>26348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5807</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5890</v>
-      </c>
-      <c r="D22" s="3">
-        <v>6460</v>
-      </c>
-      <c r="E22" s="3">
-        <v>7011</v>
-      </c>
-      <c r="F22" s="3">
-        <v>7839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>8643</v>
-      </c>
-      <c r="C23" s="3">
-        <v>8960</v>
-      </c>
-      <c r="D23" s="3">
-        <v>9203</v>
-      </c>
-      <c r="E23" s="3">
-        <v>9906</v>
-      </c>
-      <c r="F23" s="3">
-        <v>10712</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2407</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2672</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3229</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3763</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3">
-        <v>12128</v>
-      </c>
-      <c r="C25" s="3">
-        <v>12510</v>
-      </c>
-      <c r="D25" s="3">
-        <v>13030</v>
-      </c>
-      <c r="E25" s="3">
-        <v>13814</v>
-      </c>
-      <c r="F25" s="3">
-        <v>14439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <v>6901</v>
-      </c>
-      <c r="C26" s="3">
-        <v>7104</v>
-      </c>
-      <c r="D26" s="3">
-        <v>7427</v>
-      </c>
-      <c r="E26" s="3">
-        <v>7960</v>
-      </c>
-      <c r="F26" s="3">
-        <v>8617</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3">
-        <v>23225</v>
-      </c>
-      <c r="C27" s="3">
-        <v>23606</v>
-      </c>
-      <c r="D27" s="3">
-        <v>24012</v>
-      </c>
-      <c r="E27" s="3">
-        <v>24320</v>
-      </c>
-      <c r="F27" s="3">
-        <v>24873</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3">
-        <v>24471</v>
-      </c>
-      <c r="C28" s="3">
-        <v>24965</v>
-      </c>
-      <c r="D28" s="3">
-        <v>25054</v>
-      </c>
-      <c r="E28" s="3">
-        <v>23822</v>
-      </c>
-      <c r="F28" s="3">
-        <v>24015</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3">
-        <v>28271</v>
-      </c>
-      <c r="C29" s="3">
-        <v>33591</v>
-      </c>
-      <c r="D29" s="3">
-        <v>39603</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3">
-        <v>38627</v>
-      </c>
-      <c r="C30" s="3">
-        <v>37585</v>
-      </c>
-      <c r="D30" s="3">
-        <v>38771</v>
-      </c>
-      <c r="E30" s="3">
-        <v>38559</v>
-      </c>
-      <c r="F30" s="3">
-        <v>39379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3">
-        <v>43091</v>
-      </c>
-      <c r="C31" s="3">
-        <v>42640</v>
-      </c>
-      <c r="D31" s="3">
-        <v>42253</v>
-      </c>
-      <c r="E31" s="3">
-        <v>40146</v>
-      </c>
-      <c r="F31" s="3">
-        <v>41911</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3">
-        <v>20706</v>
-      </c>
-      <c r="C32" s="3">
-        <v>20514</v>
-      </c>
-      <c r="D32" s="3">
-        <v>20868</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3">
-        <v>3199</v>
-      </c>
-      <c r="C33" s="3">
-        <v>3440</v>
-      </c>
-      <c r="D33" s="3">
-        <v>3757</v>
-      </c>
-      <c r="E33" s="3">
-        <v>3767</v>
-      </c>
-      <c r="F33" s="3">
-        <v>3883</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3">
-        <v>2226</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2433</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2624</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2718</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="3">
-        <v>1747</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1972</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2195</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2482</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3">
-        <v>2416</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2493</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2706</v>
-      </c>
-      <c r="E36" s="3">
-        <v>3237</v>
-      </c>
-      <c r="F36" s="3">
-        <v>3666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3">
-        <v>3703</v>
-      </c>
-      <c r="C37" s="3">
-        <v>3808</v>
-      </c>
-      <c r="D37" s="3">
-        <v>3445</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2994</v>
-      </c>
-      <c r="F37" s="3">
-        <v>3096</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>